--- a/templates/품새_경기시간_계산기_양식.xlsx
+++ b/templates/품새_경기시간_계산기_양식.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,297 +451,237 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>공인품새</t>
+          <t>개인전</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>개인전</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>초등부</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>공인품새</t>
+          <t>개인전</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>개인전</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>중등부</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>공인품새</t>
+          <t>개인전</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>개인전</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>고등부</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>공인품새</t>
+          <t>개인전</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>개인전</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>대학부</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>공인품새</t>
+          <t>개인전</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>개인전</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>성인/장년부</t>
-        </is>
-      </c>
+          <t>일반부</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>공인품새</t>
+          <t>복식전</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>복식전</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
           <t>초등부</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>공인품새</t>
+          <t>복식전</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>단체전</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>초등부</t>
-        </is>
-      </c>
+          <t>중등부</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>공인품새</t>
+          <t>복식전</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>복식전</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>중등부</t>
-        </is>
-      </c>
+          <t>고등부</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>공인품새</t>
+          <t>복식전</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>단체전</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>중등부</t>
-        </is>
-      </c>
+          <t>대학부</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>공인품새</t>
+          <t>복식전</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>복식전</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>고등부</t>
-        </is>
-      </c>
+          <t>일반부</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>공인품새</t>
+          <t>단체전</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>단체전</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>고등부</t>
-        </is>
-      </c>
+          <t>초등부</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>공인품새</t>
+          <t>단체전</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>복식전</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>대학부</t>
-        </is>
-      </c>
+          <t>중등부</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>공인품새</t>
+          <t>단체전</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>단체전</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>대학부</t>
-        </is>
-      </c>
+          <t>고등부</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>공인품새</t>
+          <t>단체전</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>복식전</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>성인/장년부</t>
-        </is>
-      </c>
+          <t>대학부</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>공인품새</t>
+          <t>단체전</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>단체전</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>성인/장년부</t>
-        </is>
-      </c>
+          <t>일반부</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>자유품새</t>
+          <t>개인전(자유품새)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>개인전</t>
+          <t>초등부</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -751,12 +691,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>자유품새</t>
+          <t>개인전(자유품새)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>복식전</t>
+          <t>중등부</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -766,17 +706,197 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>자유품새</t>
+          <t>개인전(자유품새)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>단체전</t>
+          <t>고등부</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>개인전(자유품새)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>대학부</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>개인전(자유품새)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>일반부</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>복식전(자유품새)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>초등부</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>복식전(자유품새)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>중등부</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>복식전(자유품새)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>고등부</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>복식전(자유품새)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>대학부</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>복식전(자유품새)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>일반부</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>단체전(자유품새)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>초등부</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>단체전(자유품새)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>중등부</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>단체전(자유품새)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>고등부</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>단체전(자유품새)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>대학부</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>단체전(자유품새)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>일반부</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
